--- a/Analysis/New_Analysis.xlsx
+++ b/Analysis/New_Analysis.xlsx
@@ -348,14 +348,14 @@
     <t>RULE_INVOCATION_CONTROL (called rule)</t>
   </si>
   <si>
-    <t>LOOKUP_&amp;_MAINTAIN_GLOBAL_VARS (Add additional vals to map var)</t>
-  </si>
-  <si>
     <t xml:space="preserve">            TRANSF_INVOCATION_CONTROL (lazy rule)</t>
   </si>
   <si>
     <t>CREATE_OUTPUT_PATTERN
  (called rule)</t>
+  </si>
+  <si>
+    <t>MAINTAIN_GLOBAL_VARS + USE_GLOBAL_VARS (Add additional vals to map var)</t>
   </si>
 </sst>
 </file>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +973,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>88</v>
@@ -1243,7 +1243,7 @@
         <v>69</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="12" customFormat="1" ht="210" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>72</v>
@@ -1364,7 +1364,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1384,7 +1384,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
         <v>26</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
         <v>26</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>75</v>
@@ -1447,7 +1447,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>76</v>
